--- a/va_facility_data_2025-02-20/Murrieta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Murrieta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Murrieta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Murrieta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2efbad243f8d4ddc808922071f2cc2d7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1aec85207112415d9133e2b3fd25387a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4251d6debeea48b5b91424054a559f40"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6481a8e90ff24f89bb909ea465e22bae"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb8f9630d534149f88ed6e7c985036c86"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7920ee526dca4415a8588073e2e8b229"/>
   </x:sheets>
 </x:workbook>
 </file>
